--- a/data/Données_Suivi_Bio_Etudiant.xlsx
+++ b/data/Données_Suivi_Bio_Etudiant.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derbre_f\Documents\Enseignement\2023-2024\Digisport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kilia\Documents\M2\Monitoring et charges entrainement\Projet\Monitoring_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6405EE66-133B-41B8-81E8-99BD7F67ED28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -299,11 +311,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,29 +337,31 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,12 +372,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -381,66 +389,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Texte explicatif 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Texte explicatif 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -717,1774 +705,1821 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="31.21875" customWidth="1"/>
     <col min="2" max="2" width="11.44140625"/>
-    <col min="3" max="3" width="11.44140625" style="9"/>
-    <col min="4" max="4" width="19.33203125" style="9" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875" style="9"/>
+    <col min="3" max="3" width="11.44140625" style="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5546875" style="1"/>
     <col min="10" max="10" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="10">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6">
         <v>45107</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="6">
         <v>45245</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>45107</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6">
         <v>45245</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="6">
         <v>45107</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="6">
         <v>45245</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="6">
         <v>45107</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="6">
         <v>45245</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="46.2" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="16.2" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>25.5</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>25.9</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="9">
         <v>22.5</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="9">
         <v>22.9</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="5">
         <v>27.4</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="5">
         <v>27.8</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>18.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>74</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>73.2</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="9">
         <v>81</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="9">
         <v>84</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="5">
         <v>83.4</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="5">
         <v>84.1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>69</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.2" customHeight="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>10</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>9</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="9">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="9">
         <v>9.4</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="5">
         <v>10.119999999999999</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="5">
         <v>9.5</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>9</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <v>8.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>21</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>20</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="9">
         <v>19</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="9">
         <v>19.5</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="5">
         <v>21.5</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="5">
         <v>22</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>22</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <v>21.5</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>44.2</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>42.5</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="9">
         <v>46.1</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="9">
         <v>46.4</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="5">
         <v>42.1</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="5">
         <v>43</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <v>39.1</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="5">
         <v>38.5</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>48.1</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>46.4</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="9">
         <v>49.1</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="9">
         <v>49.2</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="5">
         <v>45.4</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="5">
         <v>46</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>42.1</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <v>39.5</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>48</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <v>38</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>39</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>44</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="5">
         <v>51</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="5">
         <v>53</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <v>48</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <v>10.3</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="9">
         <v>11.45</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>9.1050000000000004</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>10.95</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="5">
         <v>9.5749999999999993</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="5">
         <v>9.5749999999999993</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="5">
         <v>11.899999999999999</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="5">
         <v>12.6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>0.89</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>0.82499999999999996</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>0.81</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>0.82499999999999996</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="5">
         <v>0.88500000000000001</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="5">
         <v>0.81</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="5">
         <v>0.84499999999999997</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="5">
         <v>0.86</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <v>0.59</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <v>0.34499999999999997</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>1.39</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <v>0.58499999999999996</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="5">
         <v>0.77500000000000002</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="5">
         <v>0.74</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="5">
         <v>0.53</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>138.5</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="9">
         <v>126.5</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>155</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>412</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="5">
         <v>142.5</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="5">
         <v>152.5</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="5">
         <v>143.5</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="5">
         <v>151.5</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <v>116</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="9">
         <v>57.5</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>179</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>421.5</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="5">
         <v>161</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="5">
         <v>69.5</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="5">
         <v>127.5</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="5">
         <v>92.5</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <v>6.65</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="9">
         <v>5.9</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>5.6</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <v>5.07</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="5">
         <v>4.7</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="5">
         <v>4.5749999999999993</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="5">
         <v>5</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="5">
         <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <v>0.45999999999999996</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="9">
         <v>1.9</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>1.04</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>0.53</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="5">
         <v>0.46499999999999997</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="5">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="9">
         <v>139.5</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="9">
         <v>138.5</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>140.5</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>141.5</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="5">
         <v>143</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="5">
         <v>143</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="5">
         <v>142</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="5">
         <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="9">
         <v>4.07</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="9">
         <v>4.0549999999999997</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <v>4.03</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="5">
         <v>4.3449999999999998</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="5">
         <v>4.125</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="5">
         <v>4.34</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="5">
         <v>4.8650000000000002</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="5">
         <v>3.94</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="9">
         <v>2.0700000000000003</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="9">
         <v>2.2949999999999999</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>2.34</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <v>2.335</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="5">
         <v>2.4750000000000001</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="5">
         <v>2.48</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="5">
         <v>2.2799999999999998</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="5">
         <v>2.29</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="9">
         <v>24</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <v>32</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="11">
         <v>27</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="5">
         <v>254</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="9">
         <v>27</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="9">
         <v>25</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="5">
         <v>32</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="5">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="9">
         <v>129</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="9">
         <v>126</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="5">
         <v>135.5</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="5">
         <v>146.5</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="5">
         <v>155</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="5">
         <v>144</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="5">
         <v>162.5</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="5">
         <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="9">
         <v>63.9</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="9">
         <v>46.7</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="5">
         <v>33</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="5">
         <v>34.9</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="5">
         <v>47.2</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="5">
         <v>40.049999999999997</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="5">
         <v>44.2</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="5">
         <v>41.15</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="9">
         <v>56.2</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="9">
         <v>69.449999999999989</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="5">
         <v>98.45</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="5">
         <v>116</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="5">
         <v>90.55</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="5">
         <v>102</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="5">
         <v>116</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="5">
         <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="9">
         <v>63</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="9">
         <v>82</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>83.5</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="5">
         <v>60</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="5">
         <v>64</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="5">
         <v>62.5</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="5">
         <v>66</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="5">
         <v>79.5</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="9">
         <v>69.400000000000006</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="9">
         <v>75.2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="5">
         <v>82</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="5">
         <v>79.400000000000006</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="5">
         <v>75.400000000000006</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="5">
         <v>76.5</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="5">
         <v>72.199999999999989</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="5">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" s="1" customFormat="1">
-      <c r="A31" s="26" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="12">
         <v>6080</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="12">
         <v>6870</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="12">
         <v>6795</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="12">
         <v>6760</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="12">
         <v>5240</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="12">
         <v>5675</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="12">
         <v>4090</v>
       </c>
-      <c r="J31" s="23">
+      <c r="J31" s="12">
         <v>3665</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="1" customFormat="1">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="9">
         <v>41.900000000000006</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="9">
         <v>58.1</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="5">
         <v>53.85</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="5">
         <v>48.25</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="5">
         <v>47</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="5">
         <v>48.35</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="5">
         <v>47.75</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="5">
         <v>43.5</v>
       </c>
-      <c r="L32" s="15"/>
-    </row>
-    <row r="33" spans="1:18" s="1" customFormat="1">
-      <c r="A33" s="1" t="s">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="9">
         <v>42.45</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="9">
         <v>26.85</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="5">
         <v>36.85</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="5">
         <v>42.75</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="5">
         <v>38.450000000000003</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="5">
         <v>37.799999999999997</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="5">
         <v>36.950000000000003</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="5">
         <v>41.05</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="1" customFormat="1">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:18">
+      <c r="A34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="9">
         <v>10.45</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="9">
         <v>9.0500000000000007</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="5">
         <v>7.3000000000000007</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="5">
         <v>6.15</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="5">
         <v>5.9</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="5">
         <v>6.25</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="5">
         <v>12</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="5">
         <v>12.149999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="1" customFormat="1">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:18">
+      <c r="A35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="9">
         <v>4.45</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="9">
         <v>5.2</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="5">
         <v>1.55</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="5">
         <v>2.25</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="5">
         <v>7.6</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="5">
         <v>6.6999999999999993</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="5">
         <v>2.1</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="5">
         <v>2.0499999999999998</v>
       </c>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-    </row>
-    <row r="36" spans="1:18" s="1" customFormat="1">
-      <c r="A36" s="1" t="s">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="9">
         <v>0.75</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="9">
         <v>0.8</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="5">
         <v>0.44999999999999996</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="5">
         <v>0.6</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="5">
         <v>1.05</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="5">
         <v>0.9</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="5">
         <v>1.2</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="5">
         <v>1.25</v>
       </c>
-      <c r="L36" s="15"/>
-    </row>
-    <row r="37" spans="1:18" s="1" customFormat="1">
-      <c r="A37" s="1" t="s">
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="9">
         <v>201.5</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="9">
         <v>209.5</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="5">
         <v>261.5</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="5">
         <v>271.5</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="5">
         <v>206.5</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="5">
         <v>224</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="5">
         <v>252.5</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="5">
         <v>249.5</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="1" customFormat="1">
-      <c r="A38" s="26" t="s">
+    <row r="38" spans="1:18">
+      <c r="A38" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="9">
         <v>4.82</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="9">
         <v>5.1950000000000003</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="5">
         <v>5.66</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="5">
         <v>5.9</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="5">
         <v>4.7450000000000001</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="5">
         <v>4.72</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="5">
         <v>5.01</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="5">
         <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="9">
         <v>14.4</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="9">
         <v>13.5</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="5">
         <v>15.3</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="5">
         <v>14.5</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="5">
         <v>14.600000000000001</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="5">
         <v>13.5</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="5">
         <v>12.9</v>
       </c>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="9">
         <v>86</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="9">
         <v>83.35</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="11">
         <v>79.599999999999994</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="11">
         <v>78.099999999999994</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="5">
         <v>88.949999999999989</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="5">
         <v>87.3</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="5">
         <v>82.3</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="5">
         <v>81.8</v>
       </c>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="9">
         <v>41.45</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="9">
         <v>38.4</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="11">
         <v>45.05</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="11">
         <v>46.1</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="5">
         <v>42.2</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="5">
         <v>41.2</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="5">
         <v>39.6</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="5">
         <v>37.6</v>
       </c>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="9">
         <f t="shared" ref="C42:J42" si="0">C39/C38*10</f>
         <v>29.875518672199171</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="9">
         <f t="shared" si="0"/>
         <v>25.98652550529355</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="11">
         <f t="shared" si="0"/>
         <v>27.031802120141343</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="11">
         <f t="shared" si="0"/>
         <v>27.288135593220343</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="9">
         <f t="shared" si="0"/>
         <v>30.558482613277135</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="9">
         <f t="shared" si="0"/>
         <v>30.932203389830516</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="11">
         <f t="shared" si="0"/>
         <v>26.946107784431138</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J42" s="11">
         <f t="shared" si="0"/>
         <v>26.819126819126822</v>
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="9">
         <f t="shared" ref="C43:H43" si="1">C39/C41*100</f>
         <v>34.740651387213511</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="9">
         <f t="shared" si="1"/>
         <v>35.15625</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="9">
         <f t="shared" si="1"/>
         <v>33.962264150943398</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="9">
         <f t="shared" si="1"/>
         <v>34.924078091106296</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="9">
         <f t="shared" si="1"/>
         <v>34.360189573459714</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="9">
         <f t="shared" si="1"/>
         <v>35.436893203883493</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="9">
         <f>I39/I41*100</f>
         <v>34.090909090909086</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="9">
         <f>J39/J41*100</f>
         <v>34.308510638297875</v>
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="9">
         <v>2.1749999999999998</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="9">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="5">
         <v>2.16</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="5">
         <v>2.29</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="5">
         <v>2.3499999999999996</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="5">
         <v>2.36</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="5">
         <v>2.2400000000000002</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="5">
         <v>2.78</v>
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="9">
         <v>104</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="9">
         <v>154</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="5">
         <v>59.1</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="5">
         <v>49.2</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="5">
         <v>208</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="5">
         <v>158</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="5">
         <v>35</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="9">
         <v>18.3</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="9">
         <v>11.2</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="5">
         <v>22.7</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="5">
         <v>23.1</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="5">
         <v>20.6</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="5">
         <v>15.05</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="5">
         <v>18.350000000000001</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="5">
         <v>12.25</v>
       </c>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="9">
         <v>33.450000000000003</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="9">
         <v>19.8</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="5">
         <v>34.9</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="5">
         <v>40.200000000000003</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="5">
         <v>33.1</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="5">
         <v>25.4</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="5">
         <v>29.54</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="5">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="25">
+      <c r="C50" s="11">
         <v>596</v>
       </c>
-      <c r="D50" s="25">
+      <c r="D50" s="11">
         <v>516</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="11">
         <v>461</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="11">
         <v>424</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="11">
         <v>487</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="11">
         <v>401</v>
       </c>
-      <c r="I50" s="16">
+      <c r="I50" s="11">
         <v>353</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J50" s="11">
         <v>493</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="9">
         <v>16.399999999999999</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="9">
         <v>27.4</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="5">
         <v>19.600000000000001</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="5">
         <v>20.399999999999999</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="5">
         <v>17.899999999999999</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="5">
         <v>21.6</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="5">
         <v>18.5</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="9">
         <v>3.51</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="5">
         <v>2</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="5">
         <v>3</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="9">
         <v>511.5</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="9">
         <v>515.5</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="5">
         <v>411.5</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="5">
         <v>656.5</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="5">
         <v>434</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="5">
         <v>525.5</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="5">
         <v>474.5</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="5">
         <v>520.5</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="9">
         <v>338.5</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="9">
         <v>499.5</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="5">
         <v>228.5</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="5">
         <v>360</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="5">
         <v>628.5</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="5">
         <v>662</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="5">
         <v>714</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="5">
         <v>958.5</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="9">
         <v>10.7</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="9">
         <v>7.7850000000000001</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="5">
         <v>9.2850000000000001</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="5">
         <v>7.7949999999999999</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="5">
         <v>9.3650000000000002</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="5">
         <v>8.2800000000000011</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="5">
         <v>10.9</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="5">
         <v>11.75</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="9">
         <v>8.84</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="9">
         <v>13.55</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="5">
         <v>13.65</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="5">
         <v>17.600000000000001</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="5">
         <v>9.4499999999999993</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="5">
         <v>11.1</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="5">
         <v>13</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="9">
         <v>336.5</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="9">
         <v>275.5</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="5">
         <v>525</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="5">
         <v>604.5</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="5">
         <v>493</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="5">
         <v>503</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="5">
         <v>357.5</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="5">
         <v>493.5</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="9">
         <v>11.85</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="9">
         <v>13.1</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="5">
         <v>7.0150000000000006</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="5">
         <v>10.649999999999999</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="5">
         <v>10.7</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="5">
         <v>11.35</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="5">
         <v>17.25</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="5">
         <v>11.15</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="9">
         <v>24.35</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="9">
         <v>34.299999999999997</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="5">
         <v>37.400000000000006</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="5">
         <v>36.549999999999997</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="5">
         <v>33.1</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="5">
         <v>15.24</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="5">
         <v>28</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="5">
         <v>26.75</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
